--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE93F8F-34FA-48A6-A52B-DD46AC5B6A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FC384-269A-42B6-BDAD-377088CD01A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6072" yWindow="3828" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="2664" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,20 @@
   <si>
     <t>[2001,2002,2003,2004]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>houyi_load</t>
+  </si>
+  <si>
+    <t>arthur_load</t>
   </si>
 </sst>
 </file>
@@ -430,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -442,9 +456,10 @@
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,13 +475,16 @@
       <c r="E1" t="s">
         <v>15</v>
       </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -482,8 +500,11 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -499,8 +520,11 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
@@ -516,8 +540,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
@@ -532,6 +559,9 @@
       </c>
       <c r="E6" t="s">
         <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09FC384-269A-42B6-BDAD-377088CD01A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C1DD6B-6FB7-4A40-9F2A-17A7CDEE8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="2664" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2136" yWindow="3216" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,59 +67,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>亚瑟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后羿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arthur_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>houyi_head</t>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Houyi</t>
+  </si>
+  <si>
+    <t>[1001,1002,1003,1004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2001,2002,2003,2004]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>houyi_load</t>
+  </si>
+  <si>
+    <t>arthur_load</t>
+  </si>
+  <si>
+    <t>战斗资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亚瑟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后羿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arthur_head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>houyi_head</t>
-  </si>
-  <si>
-    <t>模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Model</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Houyi</t>
-  </si>
-  <si>
-    <t>[1001,1002,1003,1004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2001,2002,2003,2004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>立绘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>houyi_load</t>
-  </si>
-  <si>
-    <t>arthur_load</t>
+  </si>
+  <si>
+    <t>展示技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowSkills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -444,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -457,9 +472,11 @@
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,21 +487,27 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -495,16 +518,22 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -523,45 +552,63 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C1DD6B-6FB7-4A40-9F2A-17A7CDEE8DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909E7E7-5682-4B5C-A63D-8244EFD3F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="3216" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5232" yWindow="4908" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亚瑟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后羿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>arthur_head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +126,29 @@
   </si>
   <si>
     <t>ShowSkills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食尸鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_001</t>
+  </si>
+  <si>
+    <t>hero_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -487,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -518,19 +533,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -564,25 +579,25 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -590,25 +605,51 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
         <v>17</v>
       </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>103</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>19</v>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7909E7E7-5682-4B5C-A63D-8244EFD3F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C2485-18C2-4F01-82FE-8950B5E7999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5232" yWindow="4908" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="3660" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -67,13 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arthur_head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>houyi_head</t>
-  </si>
-  <si>
     <t>模型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,14 +81,6 @@
     <t>Houyi</t>
   </si>
   <si>
-    <t>[1001,1002,1003,1004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2001,2002,2003,2004]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>立绘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,12 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>houyi_load</t>
-  </si>
-  <si>
-    <t>arthur_load</t>
-  </si>
-  <si>
     <t>战斗资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -150,6 +129,27 @@
   <si>
     <t>hero_003</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40001,40002,10002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40001,40002,20002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40001,40002,30002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrimReaper</t>
+  </si>
+  <si>
+    <t>Ghoul</t>
+  </si>
+  <si>
+    <t>Cactus</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -502,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -533,19 +533,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -579,25 +579,25 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,25 +605,25 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
       <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,25 +631,25 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
       <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Hero.xlsx
+++ b/Excel/Hero.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688C2485-18C2-4F01-82FE-8950B5E7999A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A192B1F3-CBDC-47D8-A570-759A10CAF2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2124" yWindow="3660" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +73,6 @@
   <si>
     <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Houyi</t>
   </si>
   <si>
     <t>立绘</t>
@@ -502,16 +496,16 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
       </c>
       <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
       </c>
       <c r="H1" t="s">
         <v>9</v>
@@ -533,19 +527,19 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -579,25 +573,25 @@
         <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -605,25 +599,25 @@
         <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -631,25 +625,25 @@
         <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
